--- a/data/happiness_index.xlsx
+++ b/data/happiness_index.xlsx
@@ -1390,8 +1390,8 @@
   <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
